--- a/data/trans_dic/P33b_R1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R1-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,72; 13,39</t>
+          <t>6,77; 13,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,02; 18,13</t>
+          <t>11,99; 18,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,27; 14,92</t>
+          <t>10,23; 14,93</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,27; 11,25</t>
+          <t>5,34; 11,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,85; 13,6</t>
+          <t>9,01; 13,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,81; 11,83</t>
+          <t>7,91; 11,7</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,44; 17,85</t>
+          <t>10,97; 17,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,27; 25,68</t>
+          <t>18,48; 25,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,68; 21,03</t>
+          <t>15,86; 20,94</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,48; 19,43</t>
+          <t>10,66; 19,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,64; 26,1</t>
+          <t>18,2; 26,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,04; 21,68</t>
+          <t>15,79; 21,78</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,05; 11,51</t>
+          <t>5,13; 11,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,4; 13,61</t>
+          <t>8,51; 13,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,67; 11,64</t>
+          <t>7,7; 12,02</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,28; 15,11</t>
+          <t>8,57; 15,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,58; 27,5</t>
+          <t>19,84; 27,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,91; 19,88</t>
+          <t>15,04; 19,89</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,75; 15,9</t>
+          <t>9,72; 15,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,92; 23,09</t>
+          <t>11,75; 23,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,55; 18,32</t>
+          <t>12,23; 18,3</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,57; 21,55</t>
+          <t>15,53; 21,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,76; 33,56</t>
+          <t>28,04; 33,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,81; 27,03</t>
+          <t>21,85; 26,96</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,96; 14,37</t>
+          <t>11,89; 14,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>18,54; 21,91</t>
+          <t>18,66; 21,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,01; 18,06</t>
+          <t>16,06; 18,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R1-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,77; 13,81</t>
+          <t>6,72; 13,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,99; 18,21</t>
+          <t>12,02; 18,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,23; 14,93</t>
+          <t>10,27; 14,92</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 11,45</t>
+          <t>5,27; 11,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,01; 13,77</t>
+          <t>8,85; 13,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,91; 11,7</t>
+          <t>7,81; 11,83</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,97; 17,83</t>
+          <t>10,44; 17,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,48; 25,57</t>
+          <t>18,27; 25,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,86; 20,94</t>
+          <t>15,68; 21,03</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,66; 19,31</t>
+          <t>10,48; 19,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,2; 26,11</t>
+          <t>17,64; 26,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,79; 21,78</t>
+          <t>16,04; 21,68</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,13; 11,08</t>
+          <t>5,05; 11,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 13,83</t>
+          <t>8,4; 13,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,7; 12,02</t>
+          <t>7,67; 11,64</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,57; 15,51</t>
+          <t>8,28; 15,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,84; 27,51</t>
+          <t>19,58; 27,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,04; 19,89</t>
+          <t>14,91; 19,88</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,72; 15,83</t>
+          <t>9,75; 15,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,75; 23,04</t>
+          <t>11,92; 23,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,23; 18,3</t>
+          <t>12,55; 18,32</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,53; 21,82</t>
+          <t>14,57; 21,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>28,04; 33,54</t>
+          <t>27,76; 33,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,85; 26,96</t>
+          <t>21,81; 27,03</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,89; 14,36</t>
+          <t>11,96; 14,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>18,66; 21,94</t>
+          <t>18,54; 21,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,06; 18,08</t>
+          <t>16,01; 18,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R1-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>11,76%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,72; 13,39</t>
+          <t>6,42; 13,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,02; 18,13</t>
+          <t>11,56; 17,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,27; 14,92</t>
+          <t>9,64; 14,34</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,52%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,27; 11,25</t>
+          <t>5,2; 11,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,85; 13,6</t>
+          <t>8,81; 13,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,81; 11,83</t>
+          <t>7,77; 11,81</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>21,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>17,96%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,44; 17,85</t>
+          <t>10,33; 17,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,27; 25,68</t>
+          <t>18,13; 25,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,68; 21,03</t>
+          <t>15,38; 20,74</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>16,57%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,48; 19,43</t>
+          <t>10,25; 19,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,64; 26,1</t>
+          <t>10,54; 23,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,04; 21,68</t>
+          <t>12,26; 19,77</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>9,44%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,05; 11,51</t>
+          <t>5,0; 11,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,4; 13,61</t>
+          <t>8,51; 13,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,67; 11,64</t>
+          <t>7,7; 11,63</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>23,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>17,17%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,28; 15,11</t>
+          <t>8,11; 14,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,58; 27,5</t>
+          <t>19,61; 27,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,91; 19,88</t>
+          <t>14,71; 19,63</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>14,64%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,75; 15,9</t>
+          <t>9,54; 15,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,92; 23,09</t>
+          <t>8,11; 22,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,55; 18,32</t>
+          <t>9,36; 17,65</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>30,71%</t>
+          <t>31,13%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>24,77%</t>
+          <t>21,95%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,57; 21,55</t>
+          <t>6,77; 21,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,76; 33,56</t>
+          <t>28,21; 33,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,81; 27,03</t>
+          <t>13,9; 26,57</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>15,77%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,96; 14,37</t>
+          <t>9,46; 13,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>18,54; 21,91</t>
+          <t>15,69; 21,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,01; 18,06</t>
+          <t>13,66; 17,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R1-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,42; 13,03</t>
+          <t>6,27; 13,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,56; 17,54</t>
+          <t>11,6; 17,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,64; 14,34</t>
+          <t>9,66; 14,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,2; 11,36</t>
+          <t>5,52; 11,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,81; 13,55</t>
+          <t>8,95; 13,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,77; 11,81</t>
+          <t>7,79; 11,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,33; 17,81</t>
+          <t>10,65; 18,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,13; 25,52</t>
+          <t>18,52; 25,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,38; 20,74</t>
+          <t>15,41; 20,76</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,25; 19,45</t>
+          <t>10,69; 19,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,54; 23,33</t>
+          <t>10,25; 23,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,26; 19,77</t>
+          <t>12,21; 20,54</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,0; 11,44</t>
+          <t>5,17; 11,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 13,7</t>
+          <t>8,32; 13,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,7; 11,63</t>
+          <t>7,57; 11,65</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,11; 14,93</t>
+          <t>8,23; 14,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,61; 27,54</t>
+          <t>19,66; 27,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,71; 19,63</t>
+          <t>14,97; 20,12</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,54; 15,98</t>
+          <t>9,71; 15,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,11; 22,73</t>
+          <t>8,17; 22,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,36; 17,65</t>
+          <t>8,47; 17,74</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,77; 21,0</t>
+          <t>6,55; 20,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>28,21; 33,98</t>
+          <t>28,31; 33,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,9; 26,57</t>
+          <t>13,46; 26,39</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,46; 13,46</t>
+          <t>9,61; 13,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>15,69; 21,07</t>
+          <t>15,57; 20,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>13,66; 17,03</t>
+          <t>13,67; 16,9</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene dificultad para dormirse por la noche</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>29058</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>41650</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>70708</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>19538; 42207</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>33607; 50809</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>58037; 85517</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>40754</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>57573</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>98327</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>28603; 61723</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>46066; 69759</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>80545; 120039</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>43203</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>76051</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>119254</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33649; 56938</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>64448; 89654</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>102306; 137896</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>44821</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>85768</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>130589</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>33418; 62122</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>48751; 110383</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>96223; 161938</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>13665</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>22868</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>36532</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9233; 19892</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17339; 28661</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>29309; 45081</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>30093</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>60352</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>90445</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>22184; 40159</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>50541; 70821</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>78859; 105984</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>76439</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>139097</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>215537</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>60546; 97702</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>69364; 190586</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>124719; 261153</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>138211</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>222701</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>360912</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>60842; 194915</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>202543; 241209</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>221278; 433838</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1738</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>416243</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>706060</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1122303</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>332455; 465747</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>569558; 767656</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>972934; 1202938</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>